--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA502829-5C4A-284A-8229-4DC46A97C40A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40895039-00F9-1E4F-8C80-A74E4FDF8C77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="25080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10960" windowWidth="51200" windowHeight="21040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="browser" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -49,7 +49,7 @@
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="475">
   <si>
     <t>description</t>
   </si>
@@ -1378,7 +1378,120 @@
     <t>automike</t>
   </si>
   <si>
-    <t>web automation workshop 02 - Interacting with Browser</t>
+    <t>${aut : url}</t>
+  </si>
+  <si>
+    <t>Check Links</t>
+  </si>
+  <si>
+    <t>loop start: check for links</t>
+  </si>
+  <si>
+    <t>number of links</t>
+  </si>
+  <si>
+    <t>[LIST(${aut : links}) =&gt; count]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>${number of links}</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>check that the link exist by its label</t>
+  </si>
+  <si>
+    <t>[LIST(${aut : links}) =&gt; item(${counter})]</t>
+  </si>
+  <si>
+    <t>forward to next link label</t>
+  </si>
+  <si>
+    <t>Check Content</t>
+  </si>
+  <si>
+    <t>ensuring we don't see ${aut : unexpected}</t>
+  </si>
+  <si>
+    <t>${aut : unexpected}</t>
+  </si>
+  <si>
+    <t>ensuring we see ${aut : expected}</t>
+  </si>
+  <si>
+    <t>${aut : expected}</t>
+  </si>
+  <si>
+    <t>Click and Wait</t>
+  </si>
+  <si>
+    <t>click on ${aut : link label to B}</t>
+  </si>
+  <si>
+    <t>${aut : link label to B}</t>
+  </si>
+  <si>
+    <t>wait until we see ${B : copyright}</t>
+  </si>
+  <si>
+    <t>${B : copyright}</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Save and Check</t>
+  </si>
+  <si>
+    <t>B : content</t>
+  </si>
+  <si>
+    <t>(null)</t>
+  </si>
+  <si>
+    <t>B : url</t>
+  </si>
+  <si>
+    <t>${B : url}</t>
+  </si>
+  <si>
+    <t>${B : content}</t>
+  </si>
+  <si>
+    <t>save content to variable</t>
+  </si>
+  <si>
+    <t>regex check for occurrences of "B"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>web automation workshop 02 - Interacting with Browser
+- continuing from web-01
+- assert of link on web page by its link
+- assert presence and absence of text on web page
+- click-and-wait example
+- save web content for offline processing</t>
   </si>
 </sst>
 </file>
@@ -3559,11 +3672,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.83203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="47.83203125" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="35.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
@@ -3606,7 +3720,7 @@
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -3690,11 +3804,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="27" t="s">
+        <v>439</v>
+      </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>438</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3709,10 +3831,18 @@
     <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -3726,10 +3856,18 @@
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>446</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3742,11 +3880,21 @@
     </row>
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3760,11 +3908,18 @@
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="22"/>
@@ -3776,10 +3931,18 @@
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3793,11 +3956,21 @@
     </row>
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>449</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3809,11 +3982,21 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>455</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3827,10 +4010,18 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>457</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3843,11 +4034,21 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>460</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3861,27 +4062,45 @@
     </row>
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>462</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="22"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>463</v>
+      </c>
       <c r="M15" s="12"/>
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="27" t="s">
+        <v>464</v>
+      </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>467</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3895,12 +4114,24 @@
     </row>
     <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>468</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="22"/>
@@ -3912,12 +4143,24 @@
     </row>
     <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="B18" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="22"/>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="480">
   <si>
     <t>description</t>
   </si>
@@ -1505,13 +1505,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1964,8 +1967,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2596,8 +2787,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3763,6 +4260,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3770,7 +4831,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4034,49 +5095,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4401,7 +5552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5613,7 +6764,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>214</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60">
@@ -5621,7 +6772,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61">
@@ -5629,7 +6780,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62">
@@ -5637,7 +6788,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -5645,7 +6796,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>475</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -5653,7 +6804,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65">
@@ -5661,7 +6812,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -5669,7 +6820,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -5677,7 +6828,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -5685,7 +6836,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -5693,7 +6844,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -5701,7 +6852,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -5709,7 +6860,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -5717,7 +6868,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -5725,7 +6876,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -5733,7 +6884,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -5741,7 +6892,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -5749,7 +6900,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -5757,7 +6908,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -5765,7 +6916,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79">
@@ -5773,7 +6924,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
@@ -5781,7 +6932,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>476</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -5789,7 +6940,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82">
@@ -5797,7 +6948,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83">
@@ -5805,7 +6956,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -5813,7 +6964,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -5821,7 +6972,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -5829,7 +6980,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -5837,7 +6988,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88">
@@ -5845,7 +6996,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -5853,7 +7004,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -5861,7 +7012,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91">
@@ -5869,7 +7020,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -5877,101 +7028,106 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1508,13 +1508,19 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2155,8 +2161,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3093,8 +3193,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4824,6 +5077,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4831,7 +5366,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5185,49 +5720,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5552,7 +6132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6652,7 +7232,7 @@
         <v>342</v>
       </c>
       <c r="U45" t="s">
-        <v>213</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46">
@@ -6660,7 +7240,7 @@
         <v>211</v>
       </c>
       <c r="U46" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47">
@@ -6668,7 +7248,7 @@
         <v>320</v>
       </c>
       <c r="U47" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -6676,7 +7256,7 @@
         <v>339</v>
       </c>
       <c r="U48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -6684,7 +7264,7 @@
         <v>368</v>
       </c>
       <c r="U49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -6692,7 +7272,7 @@
         <v>302</v>
       </c>
       <c r="U50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -6700,7 +7280,7 @@
         <v>356</v>
       </c>
       <c r="U51" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -6708,7 +7288,7 @@
         <v>331</v>
       </c>
       <c r="U52" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53">
@@ -6716,7 +7296,7 @@
         <v>268</v>
       </c>
       <c r="U53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -6724,7 +7304,7 @@
         <v>292</v>
       </c>
       <c r="U54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -6732,7 +7312,7 @@
         <v>293</v>
       </c>
       <c r="U55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -6740,7 +7320,7 @@
         <v>294</v>
       </c>
       <c r="U56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -6748,7 +7328,7 @@
         <v>303</v>
       </c>
       <c r="U57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -6756,7 +7336,7 @@
         <v>312</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -6764,7 +7344,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>479</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -6772,7 +7352,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>214</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61">
@@ -6780,7 +7360,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62">
@@ -6788,7 +7368,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63">
@@ -6796,7 +7376,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -6804,7 +7384,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>475</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -7088,46 +7668,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>481</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3667" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1514,13 +1514,31 @@
   <si>
     <t>uncheckAll(locator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2255,8 +2273,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3346,8 +3646,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -5359,6 +6118,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5366,7 +6971,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5765,49 +7370,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6132,7 +7872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6458,6 +8198,9 @@
       <c r="C5" t="s">
         <v>224</v>
       </c>
+      <c r="D5" t="s">
+        <v>482</v>
+      </c>
       <c r="E5" t="s">
         <v>336</v>
       </c>
@@ -6551,7 +8294,7 @@
         <v>98</v>
       </c>
       <c r="V6" t="s">
-        <v>175</v>
+        <v>486</v>
       </c>
       <c r="W6" t="s">
         <v>180</v>
@@ -6606,6 +8349,9 @@
       <c r="U7" t="s">
         <v>99</v>
       </c>
+      <c r="V7" t="s">
+        <v>487</v>
+      </c>
       <c r="W7" t="s">
         <v>181</v>
       </c>
@@ -6656,6 +8402,9 @@
       <c r="U8" t="s">
         <v>100</v>
       </c>
+      <c r="V8" t="s">
+        <v>175</v>
+      </c>
       <c r="W8" t="s">
         <v>182</v>
       </c>
@@ -6724,7 +8473,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="M10" t="s">
         <v>434</v>
@@ -6759,7 +8508,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -6791,7 +8540,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -6819,6 +8568,9 @@
       <c r="I13" t="s">
         <v>81</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>93</v>
       </c>
@@ -6969,7 +8721,7 @@
         <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -6986,7 +8738,7 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>108</v>
@@ -7002,6 +8754,9 @@
       <c r="E22" t="s">
         <v>299</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>109</v>
       </c>
@@ -7376,7 +9131,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64">
@@ -7384,7 +9139,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -7392,7 +9147,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -7400,7 +9155,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -7408,7 +9163,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -7416,7 +9171,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69">
@@ -7424,7 +9179,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -7432,7 +9187,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71">
@@ -7440,7 +9195,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -7448,7 +9203,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -7456,7 +9211,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -7464,7 +9219,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -7472,7 +9227,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -7480,7 +9235,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -7488,7 +9243,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -7496,7 +9251,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -7504,7 +9259,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
@@ -7512,7 +9267,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -7520,7 +9275,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>476</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -7528,7 +9283,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83">
@@ -7536,7 +9291,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84">
@@ -7544,7 +9299,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -7552,7 +9307,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -7560,7 +9315,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -7568,7 +9323,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -7576,7 +9331,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89">
@@ -7584,7 +9339,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -7592,7 +9347,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -7600,7 +9355,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92">
@@ -7608,111 +9363,116 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1538,7 +1538,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2555,8 +2555,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4105,8 +4199,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6964,6 +7211,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6971,7 +7500,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7505,49 +8034,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -23,12 +23,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6401" uniqueCount="490">
   <si>
     <t>description</t>
   </si>
@@ -1532,13 +1532,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2649,8 +2655,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4352,8 +4546,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7493,6 +7993,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7500,7 +8564,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="232">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8079,49 +9143,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8634,7 +9788,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>488</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8708,7 +9862,7 @@
         <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>489</v>
       </c>
       <c r="H4" t="s">
         <v>351</v>
@@ -8779,7 +9933,7 @@
         <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
         <v>348</v>
@@ -8841,7 +9995,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8897,13 +10051,13 @@
         <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8953,13 +10107,13 @@
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -9005,11 +10159,14 @@
       <c r="E9" t="s">
         <v>306</v>
       </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
       <c r="I9" t="s">
         <v>390</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>91</v>
@@ -9043,11 +10200,14 @@
       <c r="E10" t="s">
         <v>352</v>
       </c>
+      <c r="F10" t="s">
+        <v>325</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>484</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>434</v>
@@ -9082,7 +10242,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="M11" t="s">
         <v>92</v>
@@ -9114,7 +10274,7 @@
         <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -9143,7 +10303,7 @@
         <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -9170,6 +10330,9 @@
       </c>
       <c r="I14" t="s">
         <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>94</v>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6401" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6863" uniqueCount="495">
   <si>
     <t>description</t>
   </si>
@@ -1538,13 +1538,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2843,8 +2858,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4852,8 +4961,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8557,6 +8819,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8564,7 +9108,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="247">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9233,49 +9777,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9708,7 +10297,7 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>491</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
@@ -9788,7 +10377,7 @@
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9862,7 +10451,7 @@
         <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H4" t="s">
         <v>351</v>
@@ -9933,7 +10522,7 @@
         <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>328</v>
+        <v>493</v>
       </c>
       <c r="H5" t="s">
         <v>348</v>
@@ -9995,7 +10584,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>489</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10051,7 +10640,7 @@
         <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -10107,7 +10696,7 @@
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10160,7 +10749,7 @@
         <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>494</v>
       </c>
       <c r="I9" t="s">
         <v>390</v>
@@ -10201,7 +10790,7 @@
         <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10238,6 +10827,9 @@
       <c r="E11" t="s">
         <v>274</v>
       </c>
+      <c r="F11" t="s">
+        <v>323</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -10270,6 +10862,9 @@
       <c r="E12" t="s">
         <v>263</v>
       </c>
+      <c r="F12" t="s">
+        <v>324</v>
+      </c>
       <c r="I12" t="s">
         <v>80</v>
       </c>
@@ -10299,6 +10894,9 @@
       <c r="E13" t="s">
         <v>316</v>
       </c>
+      <c r="F13" t="s">
+        <v>325</v>
+      </c>
       <c r="I13" t="s">
         <v>81</v>
       </c>
@@ -10503,7 +11101,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>490</v>
       </c>
       <c r="E23" t="s">
         <v>290</v>
@@ -10517,7 +11115,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
         <v>279</v>
@@ -10531,7 +11129,7 @@
         <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>416</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -10545,7 +11143,7 @@
         <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>416</v>
       </c>
       <c r="E26" t="s">
         <v>282</v>
@@ -10556,7 +11154,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>266</v>
@@ -10567,7 +11165,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
         <v>283</v>
@@ -10578,7 +11176,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>284</v>
@@ -10589,7 +11187,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>216</v>
@@ -10600,7 +11198,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>275</v>
@@ -10611,7 +11209,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>285</v>
@@ -10622,7 +11220,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>260</v>
@@ -10632,6 +11230,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
       <c r="E34" t="s">
         <v>330</v>
       </c>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6863" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7789" uniqueCount="497">
   <si>
     <t>description</t>
   </si>
@@ -1553,13 +1553,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2952,8 +2958,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5114,8 +5308,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9101,6 +9601,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9108,7 +10172,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9822,49 +10886,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10189,7 +11343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11581,7 +12735,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78">
@@ -11589,7 +12743,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -11597,7 +12751,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -11605,7 +12759,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81">
@@ -11613,7 +12767,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -11621,7 +12775,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>476</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -11629,7 +12783,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84">
@@ -11637,7 +12791,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85">
@@ -11645,7 +12799,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -11653,7 +12807,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -11661,7 +12815,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -11669,7 +12823,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -11677,7 +12831,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90">
@@ -11685,7 +12839,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -11693,7 +12847,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -11701,116 +12855,121 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7789" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8253" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1559,13 +1559,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="266" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3146,8 +3149,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5614,8 +5711,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10165,6 +10415,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10172,7 +10704,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="292">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10976,49 +11508,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11343,7 +11920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12679,7 +13256,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>142</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71">
@@ -12687,7 +13264,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -12695,7 +13272,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -12703,7 +13280,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -12711,7 +13288,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -12719,7 +13296,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -12727,7 +13304,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -12735,7 +13312,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -12743,7 +13320,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79">
@@ -12751,7 +13328,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -12759,7 +13336,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -12767,7 +13344,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
@@ -12775,7 +13352,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -12783,7 +13360,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>476</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -12791,7 +13368,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85">
@@ -12799,7 +13376,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86">
@@ -12807,7 +13384,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -12815,7 +13392,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -12823,7 +13400,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -12831,7 +13408,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -12839,7 +13416,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91">
@@ -12847,7 +13424,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -12855,121 +13432,126 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>163</v>
+        <v>481</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8253" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8718" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1562,13 +1562,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="266" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3243,8 +3246,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5864,8 +5961,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10697,6 +10947,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10704,7 +11236,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="307">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11553,49 +12085,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12253,7 +12830,7 @@
         <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H5" t="s">
         <v>348</v>
@@ -12315,7 +12892,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -12371,7 +12948,7 @@
         <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>489</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -12427,7 +13004,7 @@
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -12480,7 +13057,7 @@
         <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>494</v>
+        <v>329</v>
       </c>
       <c r="I9" t="s">
         <v>390</v>
@@ -12521,7 +13098,7 @@
         <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>322</v>
+        <v>494</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -12559,7 +13136,7 @@
         <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -12594,7 +13171,7 @@
         <v>263</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
         <v>80</v>
@@ -12626,7 +13203,7 @@
         <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
@@ -12656,6 +13233,9 @@
       </c>
       <c r="E14" t="s">
         <v>264</v>
+      </c>
+      <c r="F14" t="s">
+        <v>325</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8718" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9650" uniqueCount="500">
   <si>
     <t>description</t>
   </si>
@@ -1565,13 +1565,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3340,8 +3343,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6114,8 +6305,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11229,6 +11726,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11236,7 +12297,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="337">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12130,49 +13191,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13238,7 +14389,7 @@
         <v>325</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -13267,7 +14418,7 @@
         <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
         <v>95</v>
@@ -13293,7 +14444,7 @@
         <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
         <v>252</v>
@@ -13316,7 +14467,7 @@
         <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="U17" t="s">
         <v>104</v>
@@ -13333,7 +14484,7 @@
         <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>105</v>
@@ -13350,7 +14501,7 @@
         <v>296</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="U19" t="s">
         <v>106</v>
@@ -13367,7 +14518,7 @@
         <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>483</v>
+        <v>84</v>
       </c>
       <c r="U20" t="s">
         <v>107</v>
@@ -13384,7 +14535,7 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="U21" t="s">
         <v>108</v>
@@ -13401,7 +14552,7 @@
         <v>299</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>109</v>
@@ -13416,6 +14567,9 @@
       </c>
       <c r="E23" t="s">
         <v>290</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>110</v>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9650" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10586" uniqueCount="502">
   <si>
     <t>description</t>
   </si>
@@ -1568,13 +1568,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="341" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3531,8 +3537,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6611,8 +6805,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12290,6 +12790,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12297,7 +13361,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="367">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13281,49 +14345,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="316" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13827,7 +14981,7 @@
         <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s">
         <v>365</v>
@@ -13901,7 +15055,7 @@
         <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -13972,7 +15126,7 @@
         <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>501</v>
       </c>
       <c r="D5" t="s">
         <v>482</v>
@@ -14037,7 +15191,7 @@
         <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>388</v>
@@ -14093,7 +15247,7 @@
         <v>377</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
         <v>366</v>
@@ -14149,7 +15303,7 @@
         <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E8" t="s">
         <v>367</v>
@@ -14202,7 +15356,7 @@
         <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>306</v>
@@ -14243,7 +15397,7 @@
         <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
         <v>352</v>
@@ -14281,7 +15435,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
         <v>274</v>
@@ -14316,7 +15470,7 @@
         <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="E12" t="s">
         <v>263</v>
@@ -14348,7 +15502,7 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
         <v>316</v>
@@ -14380,7 +15534,7 @@
         <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>264</v>
@@ -14412,7 +15566,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>265</v>
@@ -14438,7 +15592,7 @@
         <v>396</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="E16" t="s">
         <v>317</v>
@@ -14461,7 +15615,7 @@
         <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
@@ -14478,7 +15632,7 @@
         <v>413</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>415</v>
       </c>
       <c r="E18" t="s">
         <v>89</v>
@@ -14495,7 +15649,7 @@
         <v>357</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>296</v>
@@ -14512,7 +15666,7 @@
         <v>397</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>297</v>
@@ -14529,7 +15683,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="E21" t="s">
         <v>298</v>
@@ -14546,7 +15700,7 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>299</v>
@@ -14563,7 +15717,7 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>490</v>
+        <v>321</v>
       </c>
       <c r="E23" t="s">
         <v>290</v>
@@ -14580,7 +15734,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>279</v>
@@ -14594,7 +15748,7 @@
         <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>490</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -14608,7 +15762,7 @@
         <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>416</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
         <v>282</v>
@@ -14619,7 +15773,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
         <v>266</v>
@@ -14630,7 +15784,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="E28" t="s">
         <v>283</v>
@@ -14641,7 +15795,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>284</v>
@@ -14652,7 +15806,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
         <v>216</v>
@@ -14663,7 +15817,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>275</v>
@@ -14674,7 +15828,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
         <v>285</v>
@@ -14685,7 +15839,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
         <v>260</v>
@@ -14696,7 +15850,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
         <v>330</v>
@@ -14706,6 +15860,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
       <c r="E35" t="s">
         <v>307</v>
       </c>
@@ -14714,6 +15871,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
       <c r="E36" t="s">
         <v>261</v>
       </c>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10586" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11055" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1574,13 +1574,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="341" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3725,8 +3728,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7111,8 +7208,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13354,6 +13604,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13361,7 +13893,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="382">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14435,49 +14967,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14802,7 +15379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16014,7 +16591,7 @@
         <v>268</v>
       </c>
       <c r="U53" t="s">
-        <v>131</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54">
@@ -16022,7 +16599,7 @@
         <v>292</v>
       </c>
       <c r="U54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55">
@@ -16030,7 +16607,7 @@
         <v>293</v>
       </c>
       <c r="U55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -16038,7 +16615,7 @@
         <v>294</v>
       </c>
       <c r="U56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
@@ -16046,7 +16623,7 @@
         <v>303</v>
       </c>
       <c r="U57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
@@ -16054,7 +16631,7 @@
         <v>312</v>
       </c>
       <c r="U58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
@@ -16062,7 +16639,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60">
@@ -16070,7 +16647,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>479</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61">
@@ -16078,7 +16655,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>214</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62">
@@ -16086,7 +16663,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63">
@@ -16094,7 +16671,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>485</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64">
@@ -16102,7 +16679,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65">
@@ -16110,7 +16687,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
@@ -16118,7 +16695,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
@@ -16126,7 +16703,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -16134,7 +16711,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -16142,7 +16719,7 @@
         <v>410</v>
       </c>
       <c r="U69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
@@ -16150,7 +16727,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>497</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -16158,7 +16735,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>142</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72">
@@ -16166,7 +16743,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -16174,7 +16751,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -16182,7 +16759,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -16190,7 +16767,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -16198,7 +16775,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -16206,7 +16783,7 @@
         <v>429</v>
       </c>
       <c r="U77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78">
@@ -16214,7 +16791,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -16222,7 +16799,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80">
@@ -16230,7 +16807,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -16238,7 +16815,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -16246,7 +16823,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83">
@@ -16254,7 +16831,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -16262,7 +16839,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>476</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -16270,7 +16847,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86">
@@ -16278,7 +16855,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87">
@@ -16286,7 +16863,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -16294,7 +16871,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -16302,7 +16879,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -16310,7 +16887,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -16318,7 +16895,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92">
@@ -16326,126 +16903,131 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>163</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11055" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11531" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1577,13 +1578,31 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="356" x14ac:knownFonts="1">
+  <fonts count="372" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3822,8 +3841,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7361,8 +7481,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13886,6 +14159,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13893,7 +14448,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="398">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15012,49 +15567,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15379,7 +15982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15398,75 +16001,78 @@
         <v>371</v>
       </c>
       <c r="C1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>347</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>333</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>196</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>239</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>412</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>413</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>357</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>397</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>414</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15478,1556 +16084,1576 @@
         <v>372</v>
       </c>
       <c r="C2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>491</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>349</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>315</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>384</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>433</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>417</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>253</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>217</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>398</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>419</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>420</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>381</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>407</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>96</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>171</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>176</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>183</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>432</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>373</v>
       </c>
       <c r="C3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" t="s">
         <v>500</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>365</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>350</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>341</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>334</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>431</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>240</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>218</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>399</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>421</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>382</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>408</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>97</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>172</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>177</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>364</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>184</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>374</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>387</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>492</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>351</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>238</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>335</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>241</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>219</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>400</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>422</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>358</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>409</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>354</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>173</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>178</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>184</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>424</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>375</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>501</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>482</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>336</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>498</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>348</v>
       </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>506</v>
+      </c>
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>242</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>220</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>401</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>423</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>359</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>355</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>174</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>179</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>185</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>425</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>376</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>388</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>493</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>243</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>391</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>402</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>361</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>98</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>486</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>180</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>186</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>426</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>224</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>366</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>489</v>
       </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>315</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>244</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>418</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>403</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>360</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>99</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>487</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>181</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>187</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>427</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>378</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>318</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>367</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>328</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>245</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>404</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>362</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>100</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>175</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>182</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>188</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>428</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
         <v>379</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>306</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>329</v>
       </c>
-      <c r="I9" t="s">
-        <v>390</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>246</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>405</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>363</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>209</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>189</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>315</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>352</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>494</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>434</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>247</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>406</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>257</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>190</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" t="s">
         <v>255</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>274</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>322</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>484</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>92</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>248</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>258</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>319</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>263</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>323</v>
       </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>249</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>101</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="s">
         <v>341</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>316</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>324</v>
       </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>93</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>254</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>326</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>264</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>325</v>
       </c>
-      <c r="I14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>94</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>250</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>102</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>265</v>
       </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>499</v>
+      </c>
+      <c r="N15" t="s">
         <v>95</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>251</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>103</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
         <v>385</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>317</v>
       </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
         <v>252</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>74</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>412</v>
-      </c>
-      <c r="C17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" t="s">
         <v>386</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="I17" t="s">
-        <v>380</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" t="s">
         <v>104</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
-      </c>
-      <c r="C18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" t="s">
         <v>415</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>89</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>380</v>
+      </c>
+      <c r="V18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" t="s">
+        <v>413</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>296</v>
       </c>
-      <c r="I19" t="s">
-        <v>392</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>397</v>
-      </c>
-      <c r="C20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>297</v>
       </c>
-      <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>392</v>
+      </c>
+      <c r="V20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" t="s">
         <v>256</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>298</v>
       </c>
-      <c r="I21" t="s">
-        <v>483</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>299</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>483</v>
+      </c>
+      <c r="V22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
         <v>321</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>290</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>279</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>490</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" t="s">
+        <v>282</v>
+      </c>
+      <c r="V26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>227</v>
       </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" t="s">
-        <v>282</v>
-      </c>
-      <c r="U26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>226</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>266</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>416</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>283</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>284</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>216</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>275</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>285</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>260</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>330</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>307</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>261</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>308</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>267</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>212</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>289</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>300</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>301</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>343</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>342</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>211</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>320</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>339</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>368</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>302</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>356</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>331</v>
+      </c>
+      <c r="V52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>331</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>268</v>
+      </c>
+      <c r="V53" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>268</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>292</v>
+      </c>
+      <c r="V54" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>292</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>293</v>
+      </c>
+      <c r="V55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>293</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>294</v>
+      </c>
+      <c r="V56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>294</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>303</v>
+      </c>
+      <c r="V57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>303</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>312</v>
+      </c>
+      <c r="V58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>312</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>337</v>
+      </c>
+      <c r="V59" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>337</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>309</v>
+      </c>
+      <c r="V60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>309</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>310</v>
+      </c>
+      <c r="V61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>310</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>369</v>
+      </c>
+      <c r="V62" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>369</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>370</v>
+      </c>
+      <c r="V63" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>370</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>345</v>
+      </c>
+      <c r="V64" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>345</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>313</v>
+      </c>
+      <c r="V65" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>313</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>269</v>
+      </c>
+      <c r="V66" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>269</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>353</v>
+      </c>
+      <c r="V67" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>353</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>314</v>
+      </c>
+      <c r="V68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>314</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>410</v>
+      </c>
+      <c r="V69" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>410</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>304</v>
+      </c>
+      <c r="V70" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>304</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>411</v>
+      </c>
+      <c r="V71" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>411</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>262</v>
+      </c>
+      <c r="V72" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>262</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>344</v>
+      </c>
+      <c r="V73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>344</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>280</v>
+      </c>
+      <c r="V74" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>280</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>286</v>
+      </c>
+      <c r="V75" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>286</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>291</v>
+      </c>
+      <c r="V76" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>291</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>429</v>
+      </c>
+      <c r="V77" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>429</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>332</v>
+      </c>
+      <c r="V78" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>332</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>270</v>
+      </c>
+      <c r="V79" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>270</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>281</v>
+      </c>
+      <c r="V80" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>281</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>287</v>
+      </c>
+      <c r="V81" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>287</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>276</v>
+      </c>
+      <c r="V82" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>271</v>
+      </c>
+      <c r="V83" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>271</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>288</v>
+      </c>
+      <c r="V84" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>288</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>272</v>
+      </c>
+      <c r="V85" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>272</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>273</v>
+      </c>
+      <c r="V86" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>273</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>305</v>
+      </c>
+      <c r="V87" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>305</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>311</v>
+      </c>
+      <c r="V88" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>311</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>295</v>
+      </c>
+      <c r="V89" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>295</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>340</v>
+      </c>
+      <c r="V90" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>340</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>277</v>
+      </c>
+      <c r="V91" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>277</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>278</v>
+      </c>
+      <c r="V92" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>278</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11531" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12008" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1596,13 +1596,16 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="372" x14ac:knownFonts="1">
+  <fonts count="388" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3942,8 +3945,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7634,8 +7738,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -7672,6 +7929,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14448,7 +14987,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="414">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15612,52 +16151,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="359" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="362" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16102,7 +16689,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>349</v>
+        <v>509</v>
       </c>
       <c r="J2" t="s">
         <v>315</v>
@@ -16185,7 +16772,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J3" t="s">
         <v>341</v>
@@ -16256,7 +16843,7 @@
         <v>492</v>
       </c>
       <c r="I4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J4" t="s">
         <v>238</v>
@@ -16327,7 +16914,7 @@
         <v>498</v>
       </c>
       <c r="I5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J5" t="s">
         <v>506</v>
@@ -16387,6 +16974,9 @@
       </c>
       <c r="G6" t="s">
         <v>493</v>
+      </c>
+      <c r="I6" t="s">
+        <v>348</v>
       </c>
       <c r="J6" t="s">
         <v>71</v>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12008" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12969" uniqueCount="514">
   <si>
     <t>description</t>
   </si>
@@ -1599,13 +1599,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="388" x14ac:knownFonts="1">
+  <fonts count="420" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4046,8 +4058,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7891,8 +8105,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="759">
     <border>
       <left/>
       <right/>
@@ -7929,6 +8449,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14987,7 +16071,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="446">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16199,52 +17283,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="374" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="375" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="378" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="390" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="391" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="394" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16569,7 +17749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17437,7 +18617,7 @@
         <v>296</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>513</v>
       </c>
       <c r="V19" t="s">
         <v>106</v>
@@ -17454,7 +18634,7 @@
         <v>297</v>
       </c>
       <c r="J20" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>107</v>
@@ -17471,7 +18651,7 @@
         <v>298</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="V21" t="s">
         <v>108</v>
@@ -17488,7 +18668,7 @@
         <v>299</v>
       </c>
       <c r="J22" t="s">
-        <v>483</v>
+        <v>84</v>
       </c>
       <c r="V22" t="s">
         <v>109</v>
@@ -17505,7 +18685,7 @@
         <v>290</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="V23" t="s">
         <v>110</v>
@@ -17522,7 +18702,7 @@
         <v>279</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>111</v>
@@ -17538,6 +18718,9 @@
       <c r="F25" t="s">
         <v>75</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>112</v>
       </c>
@@ -17572,7 +18755,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
       <c r="F28" t="s">
         <v>283</v>
@@ -17583,7 +18766,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>63</v>
+        <v>511</v>
       </c>
       <c r="F29" t="s">
         <v>284</v>
@@ -17594,7 +18777,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="F30" t="s">
         <v>216</v>
@@ -17605,7 +18788,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>275</v>
@@ -17616,7 +18799,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>285</v>
@@ -17627,7 +18810,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>260</v>
@@ -17638,7 +18821,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
         <v>330</v>
@@ -17649,7 +18832,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>307</v>
@@ -17660,7 +18843,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
         <v>261</v>
@@ -17670,6 +18853,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
       <c r="F37" t="s">
         <v>308</v>
       </c>
@@ -17678,6 +18864,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
       <c r="F38" t="s">
         <v>267</v>
       </c>
@@ -17962,7 +19151,7 @@
         <v>344</v>
       </c>
       <c r="V73" t="s">
-        <v>142</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74">
@@ -17970,7 +19159,7 @@
         <v>280</v>
       </c>
       <c r="V74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
@@ -17978,7 +19167,7 @@
         <v>286</v>
       </c>
       <c r="V75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76">
@@ -17986,7 +19175,7 @@
         <v>291</v>
       </c>
       <c r="V76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77">
@@ -17994,7 +19183,7 @@
         <v>429</v>
       </c>
       <c r="V77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78">
@@ -18002,7 +19191,7 @@
         <v>332</v>
       </c>
       <c r="V78" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
@@ -18010,7 +19199,7 @@
         <v>270</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80">
@@ -18018,7 +19207,7 @@
         <v>281</v>
       </c>
       <c r="V80" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -18026,7 +19215,7 @@
         <v>287</v>
       </c>
       <c r="V81" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82">
@@ -18034,7 +19223,7 @@
         <v>276</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83">
@@ -18042,7 +19231,7 @@
         <v>271</v>
       </c>
       <c r="V83" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -18050,7 +19239,7 @@
         <v>288</v>
       </c>
       <c r="V84" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85">
@@ -18058,7 +19247,7 @@
         <v>272</v>
       </c>
       <c r="V85" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -18066,7 +19255,7 @@
         <v>273</v>
       </c>
       <c r="V86" t="s">
-        <v>476</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87">
@@ -18074,7 +19263,7 @@
         <v>305</v>
       </c>
       <c r="V87" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88">
@@ -18082,7 +19271,7 @@
         <v>311</v>
       </c>
       <c r="V88" t="s">
-        <v>204</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89">
@@ -18090,7 +19279,7 @@
         <v>295</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90">
@@ -18098,7 +19287,7 @@
         <v>340</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -18106,7 +19295,7 @@
         <v>277</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -18114,136 +19303,141 @@
         <v>278</v>
       </c>
       <c r="V92" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>163</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12969" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13463" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1611,13 +1612,55 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="420" x14ac:knownFonts="1">
+  <fonts count="436" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4260,8 +4303,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8411,8 +8555,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="759">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -8449,6 +8746,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -16071,7 +16650,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="462">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17379,52 +17958,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="406" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="407" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17749,7 +18376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17798,48 +18425,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>514</v>
+      </c>
+      <c r="N1" t="s">
         <v>196</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>239</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>396</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>412</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>413</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>357</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>397</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>414</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17881,48 +18511,51 @@
         <v>433</v>
       </c>
       <c r="M2" t="s">
+        <v>519</v>
+      </c>
+      <c r="N2" t="s">
         <v>417</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>430</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>253</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>217</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>398</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>419</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>420</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>381</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>407</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>96</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>171</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>176</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>183</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>432</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17949,7 +18582,7 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>515</v>
       </c>
       <c r="I3" t="s">
         <v>349</v>
@@ -17963,43 +18596,46 @@
       <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>520</v>
+      </c>
+      <c r="O3" t="s">
         <v>431</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>240</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>399</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>421</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>382</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>408</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>97</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>172</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>177</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>364</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -18022,6 +18658,9 @@
       <c r="G4" t="s">
         <v>492</v>
       </c>
+      <c r="H4" t="s">
+        <v>516</v>
+      </c>
       <c r="I4" t="s">
         <v>350</v>
       </c>
@@ -18034,43 +18673,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>521</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>241</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>400</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>422</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>358</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>409</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>354</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>173</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>178</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>184</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>424</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -18102,40 +18744,40 @@
       <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>242</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>220</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>401</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>423</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>359</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>355</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>174</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>179</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>185</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>425</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -18164,37 +18806,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>243</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>391</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>402</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>361</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>98</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>486</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>180</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>186</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>426</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -18220,37 +18862,37 @@
       <c r="L7" t="s">
         <v>315</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>244</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>418</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>403</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>360</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>99</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>487</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>181</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>187</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>427</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -18276,34 +18918,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>245</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>404</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>362</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>100</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>175</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>182</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>188</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>428</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -18329,26 +18971,26 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>91</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>246</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>405</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>363</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>209</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>189</v>
       </c>
-      <c r="AA9" t="s">
-        <v>235</v>
+      <c r="AB9" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="10">
@@ -18370,23 +19012,23 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>434</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>247</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>406</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>257</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>190</v>
       </c>
-      <c r="AA10" t="s">
-        <v>236</v>
+      <c r="AB10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="11">
@@ -18406,22 +19048,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>484</v>
-      </c>
-      <c r="N11" t="s">
+        <v>517</v>
+      </c>
+      <c r="O11" t="s">
         <v>92</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>248</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>258</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
-        <v>237</v>
+      <c r="AB11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12">
@@ -18441,24 +19083,27 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
+        <v>484</v>
+      </c>
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>249</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>101</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>191</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>514</v>
       </c>
       <c r="D13" t="s">
         <v>341</v>
@@ -18473,24 +19118,27 @@
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
+        <v>518</v>
+      </c>
+      <c r="O13" t="s">
         <v>93</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>254</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>326</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>192</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -18505,24 +19153,24 @@
         <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
         <v>94</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>250</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>102</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -18533,22 +19181,25 @@
       <c r="J15" t="s">
         <v>499</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>95</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>251</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>103</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
         <v>385</v>
@@ -18559,19 +19210,22 @@
       <c r="J16" t="s">
         <v>82</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
         <v>252</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>74</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>386</v>
@@ -18582,16 +19236,16 @@
       <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>104</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
         <v>415</v>
@@ -18602,13 +19256,13 @@
       <c r="J18" t="s">
         <v>380</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -18619,13 +19273,13 @@
       <c r="J19" t="s">
         <v>513</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
@@ -18636,13 +19290,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="D21" t="s">
         <v>256</v>
@@ -18653,13 +19307,13 @@
       <c r="J21" t="s">
         <v>392</v>
       </c>
-      <c r="V21" t="s">
-        <v>108</v>
+      <c r="W21" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -18670,13 +19324,13 @@
       <c r="J22" t="s">
         <v>84</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>321</v>
@@ -18687,13 +19341,13 @@
       <c r="J23" t="s">
         <v>483</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>62</v>
@@ -18704,13 +19358,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>490</v>
@@ -18721,13 +19375,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>414</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>225</v>
@@ -18735,13 +19389,13 @@
       <c r="F26" t="s">
         <v>282</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="D27" t="s">
         <v>226</v>
@@ -18749,18 +19403,21 @@
       <c r="F27" t="s">
         <v>266</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" t="s">
         <v>510</v>
       </c>
       <c r="F28" t="s">
         <v>283</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -18771,7 +19428,7 @@
       <c r="F29" t="s">
         <v>284</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18782,7 +19439,7 @@
       <c r="F30" t="s">
         <v>216</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>116</v>
       </c>
     </row>
@@ -18793,7 +19450,7 @@
       <c r="F31" t="s">
         <v>275</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18804,7 +19461,7 @@
       <c r="F32" t="s">
         <v>285</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18815,7 +19472,7 @@
       <c r="F33" t="s">
         <v>260</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18826,7 +19483,7 @@
       <c r="F34" t="s">
         <v>330</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>210</v>
       </c>
     </row>
@@ -18837,7 +19494,7 @@
       <c r="F35" t="s">
         <v>307</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>120</v>
       </c>
     </row>
@@ -18848,7 +19505,7 @@
       <c r="F36" t="s">
         <v>261</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>338</v>
       </c>
     </row>
@@ -18859,7 +19516,7 @@
       <c r="F37" t="s">
         <v>308</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>435</v>
       </c>
     </row>
@@ -18870,7 +19527,7 @@
       <c r="F38" t="s">
         <v>267</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>393</v>
       </c>
     </row>
@@ -18878,7 +19535,7 @@
       <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18886,7 +19543,7 @@
       <c r="F40" t="s">
         <v>212</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18894,7 +19551,7 @@
       <c r="F41" t="s">
         <v>289</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -18902,7 +19559,7 @@
       <c r="F42" t="s">
         <v>300</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -18910,7 +19567,7 @@
       <c r="F43" t="s">
         <v>301</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -18918,7 +19575,7 @@
       <c r="F44" t="s">
         <v>343</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -18926,7 +19583,7 @@
       <c r="F45" t="s">
         <v>342</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>480</v>
       </c>
     </row>
@@ -18934,7 +19591,7 @@
       <c r="F46" t="s">
         <v>211</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>213</v>
       </c>
     </row>
@@ -18942,7 +19599,7 @@
       <c r="F47" t="s">
         <v>320</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>76</v>
       </c>
     </row>
@@ -18950,7 +19607,7 @@
       <c r="F48" t="s">
         <v>339</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -18958,7 +19615,7 @@
       <c r="F49" t="s">
         <v>368</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>128</v>
       </c>
     </row>
@@ -18966,7 +19623,7 @@
       <c r="F50" t="s">
         <v>302</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18974,470 +19631,485 @@
       <c r="F51" t="s">
         <v>356</v>
       </c>
-      <c r="V51" t="s">
-        <v>507</v>
+      <c r="W51" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>331</v>
       </c>
-      <c r="V52" t="s">
-        <v>130</v>
+      <c r="W52" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>268</v>
       </c>
-      <c r="V53" t="s">
-        <v>346</v>
+      <c r="W53" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>292</v>
       </c>
-      <c r="V54" t="s">
-        <v>502</v>
+      <c r="W54" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>293</v>
       </c>
-      <c r="V55" t="s">
-        <v>131</v>
+      <c r="W55" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>294</v>
       </c>
-      <c r="V56" t="s">
-        <v>132</v>
+      <c r="W56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>303</v>
       </c>
-      <c r="V57" t="s">
-        <v>133</v>
+      <c r="W57" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>312</v>
       </c>
-      <c r="V58" t="s">
-        <v>134</v>
+      <c r="W58" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>337</v>
       </c>
-      <c r="V59" t="s">
-        <v>135</v>
+      <c r="W59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>309</v>
       </c>
-      <c r="V60" t="s">
-        <v>136</v>
+      <c r="W60" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>310</v>
       </c>
-      <c r="V61" t="s">
-        <v>137</v>
+      <c r="W61" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>369</v>
       </c>
-      <c r="V62" t="s">
-        <v>479</v>
+      <c r="W62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>370</v>
       </c>
-      <c r="V63" t="s">
-        <v>214</v>
+      <c r="W63" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>345</v>
       </c>
-      <c r="V64" t="s">
-        <v>389</v>
+      <c r="W64" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>313</v>
       </c>
-      <c r="V65" t="s">
-        <v>485</v>
+      <c r="W65" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>269</v>
       </c>
-      <c r="V66" t="s">
-        <v>138</v>
+      <c r="W66" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>353</v>
       </c>
-      <c r="V67" t="s">
-        <v>139</v>
+      <c r="W67" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>314</v>
       </c>
-      <c r="V68" t="s">
-        <v>140</v>
+      <c r="W68" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>410</v>
       </c>
-      <c r="V69" t="s">
-        <v>141</v>
+      <c r="W69" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>304</v>
       </c>
-      <c r="V70" t="s">
-        <v>197</v>
+      <c r="W70" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>411</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>262</v>
       </c>
-      <c r="V72" t="s">
-        <v>497</v>
+      <c r="W72" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>344</v>
       </c>
-      <c r="V73" t="s">
-        <v>512</v>
+      <c r="W73" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>280</v>
       </c>
-      <c r="V74" t="s">
-        <v>142</v>
+      <c r="W74" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>286</v>
       </c>
-      <c r="V75" t="s">
-        <v>143</v>
+      <c r="W75" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>291</v>
       </c>
-      <c r="V76" t="s">
-        <v>144</v>
+      <c r="W76" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>429</v>
       </c>
-      <c r="V77" t="s">
-        <v>145</v>
+      <c r="W77" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>332</v>
       </c>
-      <c r="V78" t="s">
-        <v>146</v>
+      <c r="W78" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>270</v>
       </c>
-      <c r="V79" t="s">
-        <v>199</v>
+      <c r="W79" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>281</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>287</v>
       </c>
-      <c r="V81" t="s">
-        <v>496</v>
+      <c r="W81" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>276</v>
       </c>
-      <c r="V82" t="s">
-        <v>201</v>
+      <c r="W82" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>271</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>288</v>
       </c>
-      <c r="V84" t="s">
-        <v>215</v>
+      <c r="W84" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>272</v>
       </c>
-      <c r="V85" t="s">
-        <v>147</v>
+      <c r="W85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>273</v>
       </c>
-      <c r="V86" t="s">
-        <v>203</v>
+      <c r="W86" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>305</v>
       </c>
-      <c r="V87" t="s">
-        <v>476</v>
+      <c r="W87" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>311</v>
       </c>
-      <c r="V88" t="s">
-        <v>478</v>
+      <c r="W88" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>295</v>
       </c>
-      <c r="V89" t="s">
-        <v>204</v>
+      <c r="W89" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>340</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>277</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>278</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13463" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14988" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1654,13 +1655,64 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="436" x14ac:knownFonts="1">
+  <fonts count="484" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4404,8 +4456,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8708,8 +9063,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="871">
     <border>
       <left/>
       <right/>
@@ -8746,6 +9560,852 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -16650,7 +18310,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="462">
+  <cellXfs count="510">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18006,52 +19666,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="422" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="423" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="425" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="426" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="438" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="439" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="441" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="442" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="454" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="455" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="457" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="458" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18376,7 +20180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18398,78 +20202,81 @@
         <v>503</v>
       </c>
       <c r="D1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>347</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>333</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>514</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>196</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>396</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>412</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>413</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>357</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>397</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>414</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -18484,79 +20291,82 @@
         <v>504</v>
       </c>
       <c r="D2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>491</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>509</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>315</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>384</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>433</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>519</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>417</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>430</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>253</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>217</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>398</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>419</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>420</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>381</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>407</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>171</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>176</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>432</v>
       </c>
-      <c r="AB2" t="s">
-        <v>228</v>
+      <c r="AC2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="3">
@@ -18570,1546 +20380,1595 @@
         <v>505</v>
       </c>
       <c r="D3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E3" t="s">
         <v>500</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>365</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>515</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>349</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>341</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>334</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>520</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>431</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>240</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>218</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>399</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>421</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>382</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>408</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>97</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>172</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>177</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>364</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>184</v>
       </c>
-      <c r="AB3" t="s">
-        <v>229</v>
+      <c r="AC3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
         <v>374</v>
       </c>
       <c r="D4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>387</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>492</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>516</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>350</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>238</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>335</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>521</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>241</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>219</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>400</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>422</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>358</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>409</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>354</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>173</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>178</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>184</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>424</v>
       </c>
-      <c r="AB4" t="s">
-        <v>230</v>
+      <c r="AC4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>375</v>
       </c>
       <c r="D5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" t="s">
         <v>501</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>482</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>336</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>498</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>351</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>506</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>242</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>220</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>401</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>423</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>359</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>355</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>174</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>179</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>185</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>425</v>
       </c>
-      <c r="AB5" t="s">
-        <v>231</v>
+      <c r="AC5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>376</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>388</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>493</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>348</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>243</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>391</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>402</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>361</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>98</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>486</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>180</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>186</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>426</v>
       </c>
-      <c r="AB6" t="s">
-        <v>232</v>
+      <c r="AC6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>224</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>366</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>489</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>315</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>244</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>418</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>403</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>360</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>487</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>181</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>187</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>427</v>
       </c>
-      <c r="AB7" t="s">
-        <v>233</v>
+      <c r="AC7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>378</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>318</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>367</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>328</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>245</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>404</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>362</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>100</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>175</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>182</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>188</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>428</v>
       </c>
-      <c r="AB8" t="s">
-        <v>234</v>
+      <c r="AC8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>379</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>306</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>329</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>91</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>246</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>405</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>363</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>209</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>189</v>
       </c>
-      <c r="AB9" t="s">
-        <v>526</v>
+      <c r="AC9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" t="s">
         <v>315</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>352</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>494</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>390</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>434</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>247</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>406</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>257</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>190</v>
       </c>
-      <c r="AB10" t="s">
-        <v>527</v>
+      <c r="AC10" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>255</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>274</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>322</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>517</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>248</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>258</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
-        <v>235</v>
+      <c r="AC11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" t="s">
         <v>319</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>263</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>323</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>484</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>249</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>101</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>191</v>
       </c>
-      <c r="AB12" t="s">
-        <v>236</v>
+      <c r="AC12" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>514</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>341</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>316</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>324</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>518</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>254</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>326</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>192</v>
       </c>
-      <c r="AB13" t="s">
-        <v>237</v>
+      <c r="AC13" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>264</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>325</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>94</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>250</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>102</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>193</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>265</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>499</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
-        <v>95</v>
-      </c>
       <c r="P15" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q15" t="s">
         <v>251</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>103</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>194</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>385</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>317</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>82</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q16" t="s">
         <v>252</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>195</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" t="s">
         <v>386</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="W17" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>544</v>
+      </c>
+      <c r="AA17" t="s">
         <v>508</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>396</v>
-      </c>
-      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
         <v>415</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>380</v>
       </c>
-      <c r="W18" t="s">
-        <v>105</v>
+      <c r="X18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>412</v>
-      </c>
-      <c r="D19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>296</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>513</v>
       </c>
-      <c r="W19" t="s">
-        <v>106</v>
+      <c r="X19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>413</v>
-      </c>
-      <c r="D20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>297</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
-        <v>107</v>
+      <c r="X20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>357</v>
-      </c>
-      <c r="D21" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" t="s">
         <v>256</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>298</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>392</v>
       </c>
-      <c r="W21" t="s">
-        <v>522</v>
+      <c r="X21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>299</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>84</v>
       </c>
-      <c r="W22" t="s">
-        <v>109</v>
+      <c r="X22" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E23" t="s">
         <v>321</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>290</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>483</v>
       </c>
-      <c r="W23" t="s">
-        <v>110</v>
+      <c r="X23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>279</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
-        <v>111</v>
+      <c r="X24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>490</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
-        <v>112</v>
+      <c r="X25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>225</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>282</v>
       </c>
-      <c r="W26" t="s">
-        <v>113</v>
+      <c r="X26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>414</v>
-      </c>
-      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>226</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>266</v>
       </c>
-      <c r="W27" t="s">
-        <v>327</v>
+      <c r="X27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" t="s">
+        <v>510</v>
+      </c>
+      <c r="G28" t="s">
+        <v>283</v>
+      </c>
+      <c r="X28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>227</v>
       </c>
-      <c r="D28" t="s">
-        <v>510</v>
-      </c>
-      <c r="F28" t="s">
-        <v>283</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>511</v>
+      </c>
+      <c r="G29" t="s">
+        <v>284</v>
+      </c>
+      <c r="X29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>511</v>
-      </c>
-      <c r="F29" t="s">
-        <v>284</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>416</v>
+      </c>
+      <c r="G30" t="s">
+        <v>216</v>
+      </c>
+      <c r="X30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>416</v>
-      </c>
-      <c r="F30" t="s">
-        <v>216</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>275</v>
+      </c>
+      <c r="X31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>275</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>285</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>260</v>
+      </c>
+      <c r="X33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>260</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>330</v>
+      </c>
+      <c r="X34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>330</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>307</v>
+      </c>
+      <c r="X35" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>307</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>261</v>
+      </c>
+      <c r="X36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" t="s">
-        <v>261</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>308</v>
+      </c>
+      <c r="X37" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>308</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>267</v>
+      </c>
+      <c r="X38" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" t="s">
-        <v>267</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>212</v>
+      </c>
+      <c r="X40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>212</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>289</v>
+      </c>
+      <c r="X41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>289</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>300</v>
+      </c>
+      <c r="X42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>300</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>301</v>
+      </c>
+      <c r="X43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>301</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>343</v>
+      </c>
+      <c r="X44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>343</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>342</v>
+      </c>
+      <c r="X45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>342</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>211</v>
+      </c>
+      <c r="X46" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>211</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>320</v>
+      </c>
+      <c r="X47" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>320</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>339</v>
+      </c>
+      <c r="X48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>339</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>368</v>
+      </c>
+      <c r="X49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>368</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>302</v>
+      </c>
+      <c r="X50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>302</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>356</v>
+      </c>
+      <c r="X51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>356</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>331</v>
+      </c>
+      <c r="X52" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>331</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>268</v>
+      </c>
+      <c r="X53" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>268</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>292</v>
+      </c>
+      <c r="X54" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>292</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>293</v>
+      </c>
+      <c r="X55" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>293</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>294</v>
+      </c>
+      <c r="X56" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>294</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>303</v>
+      </c>
+      <c r="X57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>303</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>312</v>
+      </c>
+      <c r="X58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>312</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>337</v>
+      </c>
+      <c r="X59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>337</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>309</v>
+      </c>
+      <c r="X60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>309</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>310</v>
+      </c>
+      <c r="X61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>310</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>369</v>
+      </c>
+      <c r="X62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>369</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>370</v>
+      </c>
+      <c r="X63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>370</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>345</v>
+      </c>
+      <c r="X64" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>345</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>313</v>
+      </c>
+      <c r="X65" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>313</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>269</v>
+      </c>
+      <c r="X66" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>269</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>353</v>
+      </c>
+      <c r="X67" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>353</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>314</v>
+      </c>
+      <c r="X68" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>314</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>410</v>
+      </c>
+      <c r="X69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>410</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>304</v>
+      </c>
+      <c r="X70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>304</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>411</v>
+      </c>
+      <c r="X71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>411</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>262</v>
+      </c>
+      <c r="X72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>262</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>344</v>
+      </c>
+      <c r="X73" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>344</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>280</v>
+      </c>
+      <c r="X74" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>280</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>286</v>
+      </c>
+      <c r="X75" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>286</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>291</v>
+      </c>
+      <c r="X76" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>291</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>429</v>
+      </c>
+      <c r="X77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>429</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>332</v>
+      </c>
+      <c r="X78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>332</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>270</v>
+      </c>
+      <c r="X79" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>270</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>281</v>
+      </c>
+      <c r="X80" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>287</v>
+      </c>
+      <c r="X81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>281</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>276</v>
+      </c>
+      <c r="X82" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>287</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>271</v>
+      </c>
+      <c r="X83" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>276</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>288</v>
+      </c>
+      <c r="X84" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>271</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>272</v>
+      </c>
+      <c r="X85" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>288</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>273</v>
+      </c>
+      <c r="X86" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>272</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>305</v>
+      </c>
+      <c r="X87" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>273</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>311</v>
+      </c>
+      <c r="X88" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>305</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>295</v>
+      </c>
+      <c r="X89" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>311</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>340</v>
+      </c>
+      <c r="X90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>295</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>277</v>
+      </c>
+      <c r="X91" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>340</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>278</v>
+      </c>
+      <c r="X92" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>277</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>278</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14988" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15506" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1706,13 +1706,34 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="484" x14ac:knownFonts="1">
+  <fonts count="500" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4759,8 +4780,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9522,8 +9644,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="871">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -9560,6 +9835,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18310,7 +18867,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="526">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19810,52 +20367,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="470" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="471" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="474" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20180,7 +20785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20610,6 +21215,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>545</v>
+      </c>
       <c r="G6" t="s">
         <v>388</v>
       </c>
@@ -20732,7 +21340,7 @@
         <v>328</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -20785,7 +21393,7 @@
         <v>329</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -20826,7 +21434,7 @@
         <v>494</v>
       </c>
       <c r="K10" t="s">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -20864,7 +21472,7 @@
         <v>322</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>549</v>
       </c>
       <c r="M11" t="s">
         <v>517</v>
@@ -20899,7 +21507,7 @@
         <v>323</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>390</v>
       </c>
       <c r="M12" t="s">
         <v>484</v>
@@ -20934,7 +21542,7 @@
         <v>324</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>518</v>
@@ -20969,7 +21577,7 @@
         <v>325</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -21001,7 +21609,7 @@
         <v>265</v>
       </c>
       <c r="K15" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -21033,7 +21641,7 @@
         <v>317</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -21065,7 +21673,7 @@
         <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s">
         <v>544</v>
@@ -21088,7 +21696,7 @@
         <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>380</v>
+        <v>499</v>
       </c>
       <c r="X18" t="s">
         <v>104</v>
@@ -21108,7 +21716,7 @@
         <v>296</v>
       </c>
       <c r="K19" t="s">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s">
         <v>105</v>
@@ -21128,7 +21736,7 @@
         <v>297</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="X20" t="s">
         <v>106</v>
@@ -21148,7 +21756,7 @@
         <v>298</v>
       </c>
       <c r="K21" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="X21" t="s">
         <v>107</v>
@@ -21168,7 +21776,7 @@
         <v>299</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>513</v>
       </c>
       <c r="X22" t="s">
         <v>522</v>
@@ -21185,7 +21793,7 @@
         <v>290</v>
       </c>
       <c r="K23" t="s">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>109</v>
@@ -21202,7 +21810,7 @@
         <v>279</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="X24" t="s">
         <v>110</v>
@@ -21219,7 +21827,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="X25" t="s">
         <v>111</v>
@@ -21235,6 +21843,9 @@
       <c r="G26" t="s">
         <v>282</v>
       </c>
+      <c r="K26" t="s">
+        <v>483</v>
+      </c>
       <c r="X26" t="s">
         <v>112</v>
       </c>
@@ -21249,6 +21860,9 @@
       <c r="G27" t="s">
         <v>266</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>113</v>
       </c>
@@ -21263,6 +21877,9 @@
       <c r="G28" t="s">
         <v>283</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>327</v>
       </c>
@@ -21319,7 +21936,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>260</v>
+        <v>546</v>
       </c>
       <c r="X33" t="s">
         <v>118</v>
@@ -21330,7 +21947,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="X34" t="s">
         <v>119</v>
@@ -21341,7 +21958,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="X35" t="s">
         <v>210</v>
@@ -21352,7 +21969,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="X36" t="s">
         <v>120</v>
@@ -21363,7 +21980,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="X37" t="s">
         <v>338</v>
@@ -21374,7 +21991,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="X38" t="s">
         <v>435</v>
@@ -21382,7 +21999,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="X39" t="s">
         <v>393</v>
@@ -21390,7 +22007,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s">
         <v>121</v>
@@ -21398,7 +22015,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="X41" t="s">
         <v>122</v>
@@ -21406,7 +22023,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="X42" t="s">
         <v>123</v>
@@ -21414,7 +22031,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X43" t="s">
         <v>124</v>
@@ -21422,7 +22039,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="X44" t="s">
         <v>125</v>
@@ -21430,7 +22047,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X45" t="s">
         <v>126</v>
@@ -21438,7 +22055,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="X46" t="s">
         <v>480</v>
@@ -21446,7 +22063,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="X47" t="s">
         <v>213</v>
@@ -21454,7 +22071,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="X48" t="s">
         <v>76</v>
@@ -21462,7 +22079,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="X49" t="s">
         <v>127</v>
@@ -21470,7 +22087,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="X50" t="s">
         <v>128</v>
@@ -21478,7 +22095,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="X51" t="s">
         <v>129</v>
@@ -21486,7 +22103,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="X52" t="s">
         <v>523</v>
@@ -21494,7 +22111,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="X53" t="s">
         <v>507</v>
@@ -21502,7 +22119,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="X54" t="s">
         <v>130</v>
@@ -21510,7 +22127,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X55" t="s">
         <v>346</v>
@@ -21518,7 +22135,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X56" t="s">
         <v>502</v>
@@ -21526,7 +22143,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="X57" t="s">
         <v>131</v>
@@ -21534,7 +22151,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="X58" t="s">
         <v>132</v>
@@ -21542,7 +22159,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="X59" t="s">
         <v>133</v>
@@ -21550,7 +22167,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="X60" t="s">
         <v>134</v>
@@ -21558,7 +22175,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X61" t="s">
         <v>135</v>
@@ -21566,7 +22183,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="X62" t="s">
         <v>136</v>
@@ -21574,7 +22191,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X63" t="s">
         <v>137</v>
@@ -21582,7 +22199,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="X64" t="s">
         <v>479</v>
@@ -21590,7 +22207,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="X65" t="s">
         <v>524</v>
@@ -21598,7 +22215,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="X66" t="s">
         <v>214</v>
@@ -21606,7 +22223,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="X67" t="s">
         <v>389</v>
@@ -21614,7 +22231,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="X68" t="s">
         <v>485</v>
@@ -21622,7 +22239,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="X69" t="s">
         <v>138</v>
@@ -21630,7 +22247,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="X70" t="s">
         <v>139</v>
@@ -21638,7 +22255,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="X71" t="s">
         <v>140</v>
@@ -21646,7 +22263,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>262</v>
+        <v>411</v>
       </c>
       <c r="X72" t="s">
         <v>141</v>
@@ -21654,7 +22271,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="X73" t="s">
         <v>197</v>
@@ -21662,7 +22279,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>280</v>
+        <v>547</v>
       </c>
       <c r="X74" t="s">
         <v>198</v>
@@ -21670,7 +22287,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="X75" t="s">
         <v>497</v>
@@ -21678,7 +22295,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="X76" t="s">
         <v>512</v>
@@ -21686,7 +22303,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="X77" t="s">
         <v>142</v>
@@ -21694,7 +22311,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="X78" t="s">
         <v>143</v>
@@ -21702,7 +22319,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>270</v>
+        <v>429</v>
       </c>
       <c r="X79" t="s">
         <v>144</v>
@@ -21710,7 +22327,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="X80" t="s">
         <v>538</v>
@@ -21718,7 +22335,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="X81" t="s">
         <v>145</v>
@@ -21726,7 +22343,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="X82" t="s">
         <v>146</v>
@@ -21734,7 +22351,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="X83" t="s">
         <v>199</v>
@@ -21742,7 +22359,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="X84" t="s">
         <v>525</v>
@@ -21750,7 +22367,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X85" t="s">
         <v>200</v>
@@ -21758,7 +22375,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="X86" t="s">
         <v>496</v>
@@ -21766,7 +22383,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="X87" t="s">
         <v>201</v>
@@ -21774,7 +22391,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="X88" t="s">
         <v>202</v>
@@ -21782,7 +22399,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="X89" t="s">
         <v>215</v>
@@ -21790,7 +22407,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="X90" t="s">
         <v>147</v>
@@ -21798,7 +22415,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="X91" t="s">
         <v>203</v>
@@ -21806,18 +22423,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="X92" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>277</v>
+      </c>
       <c r="X93" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>278</v>
+      </c>
       <c r="X94" t="s">
         <v>204</v>
       </c>
@@ -21849,126 +22472,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>149</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>163</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15506" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16546" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1727,13 +1727,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="500" x14ac:knownFonts="1">
+  <fonts count="532" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4881,8 +4887,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="928">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9797,8 +10005,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -9835,6 +10383,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18867,7 +19979,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="558">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20415,52 +21527,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="486" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="487" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="489" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="490" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="502" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="503" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="506" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="512" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="513" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="900" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="903" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="909" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="915" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="918" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20785,7 +21993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22477,126 +23685,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>149</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>150</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>151</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>481</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>164</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16546" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17602" uniqueCount="561">
   <si>
     <t>description</t>
   </si>
@@ -1733,13 +1734,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="532" x14ac:knownFonts="1">
+  <fonts count="564" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5089,8 +5111,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="928">
+  <fills count="988">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10345,8 +10569,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -10383,6 +10947,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -19979,7 +21107,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="558">
+  <cellXfs count="590">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21623,52 +22751,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="900" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="900" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="903" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="903" fontId="518" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="519" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="909" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="909" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="521" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="522" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="915" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="915" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="918" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="918" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="921" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="921" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="930" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="933" fontId="534" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="936" fontId="535" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="939" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="537" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="942" fontId="538" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="945" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="948" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="951" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="951" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="544" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="954" fontId="545" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="960" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="963" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="966" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="969" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="972" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="975" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="978" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="981" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="981" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21993,7 +23217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22045,51 +23269,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O1" t="s">
         <v>514</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>196</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>239</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>396</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>412</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>413</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>357</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>397</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>414</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -22134,51 +23361,54 @@
         <v>433</v>
       </c>
       <c r="N2" t="s">
+        <v>555</v>
+      </c>
+      <c r="O2" t="s">
         <v>519</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>417</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>430</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>253</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>217</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>398</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>419</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>420</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>381</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>407</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>171</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>176</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>183</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>432</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>533</v>
       </c>
     </row>
@@ -22223,45 +23453,48 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
+        <v>556</v>
+      </c>
+      <c r="O3" t="s">
         <v>520</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>431</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>240</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>218</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>399</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>421</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>382</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>408</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>172</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>177</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>364</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>184</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22303,45 +23536,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>557</v>
+      </c>
+      <c r="O4" t="s">
         <v>521</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>241</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>219</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>400</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>422</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>358</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>409</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>354</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>173</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>178</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>184</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>424</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -22376,40 +23612,43 @@
       <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>242</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>220</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>401</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>423</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>359</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>355</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>174</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>179</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>185</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>425</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22441,37 +23680,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>243</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>391</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>402</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>361</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>486</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>180</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>186</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>426</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22497,37 +23739,40 @@
       <c r="M7" t="s">
         <v>315</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>244</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>418</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>403</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>360</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>487</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>181</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>187</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>427</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22553,34 +23798,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>245</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>404</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>362</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>175</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>182</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>188</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>428</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -22606,25 +23851,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>246</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>405</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>363</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>209</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>189</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>234</v>
       </c>
     </row>
@@ -22647,22 +23892,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>434</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>247</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>406</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>257</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>190</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>526</v>
       </c>
     </row>
@@ -22685,19 +23930,19 @@
       <c r="M11" t="s">
         <v>517</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>248</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>258</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>534</v>
       </c>
     </row>
@@ -22720,19 +23965,19 @@
       <c r="M12" t="s">
         <v>484</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>249</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>191</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>535</v>
       </c>
     </row>
@@ -22755,25 +24000,25 @@
       <c r="M13" t="s">
         <v>518</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>254</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>326</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>192</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -22790,25 +24035,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>250</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>193</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>514</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -22822,25 +24067,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>542</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>251</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>194</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
         <v>385</v>
@@ -22854,25 +24099,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>543</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>252</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>195</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>386</v>
@@ -22883,19 +24128,19 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>544</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>508</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
         <v>415</v>
@@ -22906,16 +24151,16 @@
       <c r="K18" t="s">
         <v>499</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -22926,16 +24171,16 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -22946,16 +24191,16 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E21" t="s">
         <v>256</v>
@@ -22966,16 +24211,16 @@
       <c r="K21" t="s">
         <v>380</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -22986,13 +24231,13 @@
       <c r="K22" t="s">
         <v>513</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="E23" t="s">
         <v>321</v>
@@ -23003,13 +24248,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>397</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -23020,13 +24265,13 @@
       <c r="K24" t="s">
         <v>392</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>490</v>
@@ -23037,13 +24282,13 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>225</v>
@@ -23054,13 +24299,13 @@
       <c r="K26" t="s">
         <v>483</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -23071,13 +24316,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>414</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>510</v>
@@ -23088,13 +24333,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="E29" t="s">
         <v>511</v>
@@ -23102,18 +24347,21 @@
       <c r="G29" t="s">
         <v>284</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>227</v>
+      </c>
       <c r="E30" t="s">
         <v>416</v>
       </c>
       <c r="G30" t="s">
         <v>216</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -23124,7 +24372,7 @@
       <c r="G31" t="s">
         <v>275</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -23135,7 +24383,7 @@
       <c r="G32" t="s">
         <v>285</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -23146,7 +24394,7 @@
       <c r="G33" t="s">
         <v>546</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23157,7 +24405,7 @@
       <c r="G34" t="s">
         <v>260</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -23168,7 +24416,7 @@
       <c r="G35" t="s">
         <v>330</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>210</v>
       </c>
     </row>
@@ -23179,7 +24427,7 @@
       <c r="G36" t="s">
         <v>307</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23190,7 +24438,7 @@
       <c r="G37" t="s">
         <v>261</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>338</v>
       </c>
     </row>
@@ -23201,7 +24449,7 @@
       <c r="G38" t="s">
         <v>308</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>435</v>
       </c>
     </row>
@@ -23209,7 +24457,7 @@
       <c r="G39" t="s">
         <v>267</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>393</v>
       </c>
     </row>
@@ -23217,7 +24465,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23225,7 +24473,7 @@
       <c r="G41" t="s">
         <v>212</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23233,7 +24481,7 @@
       <c r="G42" t="s">
         <v>289</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23241,7 +24489,7 @@
       <c r="G43" t="s">
         <v>300</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -23249,7 +24497,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -23257,7 +24505,7 @@
       <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -23265,7 +24513,7 @@
       <c r="G46" t="s">
         <v>342</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>480</v>
       </c>
     </row>
@@ -23273,7 +24521,7 @@
       <c r="G47" t="s">
         <v>211</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>213</v>
       </c>
     </row>
@@ -23281,7 +24529,7 @@
       <c r="G48" t="s">
         <v>320</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -23289,7 +24537,7 @@
       <c r="G49" t="s">
         <v>339</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23297,7 +24545,7 @@
       <c r="G50" t="s">
         <v>368</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -23305,7 +24553,7 @@
       <c r="G51" t="s">
         <v>302</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23313,7 +24561,7 @@
       <c r="G52" t="s">
         <v>356</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23321,7 +24569,7 @@
       <c r="G53" t="s">
         <v>331</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>507</v>
       </c>
     </row>
@@ -23329,7 +24577,7 @@
       <c r="G54" t="s">
         <v>268</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23337,7 +24585,7 @@
       <c r="G55" t="s">
         <v>292</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>346</v>
       </c>
     </row>
@@ -23345,7 +24593,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23353,7 +24601,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23361,7 +24609,7 @@
       <c r="G58" t="s">
         <v>303</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -23369,7 +24617,7 @@
       <c r="G59" t="s">
         <v>312</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23377,7 +24625,7 @@
       <c r="G60" t="s">
         <v>337</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -23385,7 +24633,7 @@
       <c r="G61" t="s">
         <v>309</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -23393,7 +24641,7 @@
       <c r="G62" t="s">
         <v>310</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23401,7 +24649,7 @@
       <c r="G63" t="s">
         <v>369</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -23409,7 +24657,7 @@
       <c r="G64" t="s">
         <v>370</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>479</v>
       </c>
     </row>
@@ -23417,7 +24665,7 @@
       <c r="G65" t="s">
         <v>345</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>524</v>
       </c>
     </row>
@@ -23425,7 +24673,7 @@
       <c r="G66" t="s">
         <v>313</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>214</v>
       </c>
     </row>
@@ -23433,7 +24681,7 @@
       <c r="G67" t="s">
         <v>269</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>389</v>
       </c>
     </row>
@@ -23441,7 +24689,7 @@
       <c r="G68" t="s">
         <v>353</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>485</v>
       </c>
     </row>
@@ -23449,7 +24697,7 @@
       <c r="G69" t="s">
         <v>314</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -23457,7 +24705,7 @@
       <c r="G70" t="s">
         <v>410</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -23465,7 +24713,7 @@
       <c r="G71" t="s">
         <v>304</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -23473,7 +24721,7 @@
       <c r="G72" t="s">
         <v>411</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -23481,7 +24729,7 @@
       <c r="G73" t="s">
         <v>262</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>197</v>
       </c>
     </row>
@@ -23489,7 +24737,7 @@
       <c r="G74" t="s">
         <v>547</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>198</v>
       </c>
     </row>
@@ -23497,7 +24745,7 @@
       <c r="G75" t="s">
         <v>344</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>497</v>
       </c>
     </row>
@@ -23505,7 +24753,7 @@
       <c r="G76" t="s">
         <v>280</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>512</v>
       </c>
     </row>
@@ -23513,7 +24761,7 @@
       <c r="G77" t="s">
         <v>286</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -23521,7 +24769,7 @@
       <c r="G78" t="s">
         <v>291</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -23529,7 +24777,7 @@
       <c r="G79" t="s">
         <v>429</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23537,7 +24785,7 @@
       <c r="G80" t="s">
         <v>332</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>538</v>
       </c>
     </row>
@@ -23545,7 +24793,7 @@
       <c r="G81" t="s">
         <v>270</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -23553,7 +24801,7 @@
       <c r="G82" t="s">
         <v>281</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>146</v>
       </c>
     </row>
@@ -23561,7 +24809,7 @@
       <c r="G83" t="s">
         <v>287</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>199</v>
       </c>
     </row>
@@ -23569,7 +24817,7 @@
       <c r="G84" t="s">
         <v>276</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>525</v>
       </c>
     </row>
@@ -23577,7 +24825,7 @@
       <c r="G85" t="s">
         <v>271</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -23585,7 +24833,7 @@
       <c r="G86" t="s">
         <v>288</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>496</v>
       </c>
     </row>
@@ -23593,7 +24841,7 @@
       <c r="G87" t="s">
         <v>272</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -23601,7 +24849,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>202</v>
       </c>
     </row>
@@ -23609,7 +24857,7 @@
       <c r="G89" t="s">
         <v>305</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>215</v>
       </c>
     </row>
@@ -23617,7 +24865,7 @@
       <c r="G90" t="s">
         <v>311</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>147</v>
       </c>
     </row>
@@ -23625,7 +24873,7 @@
       <c r="G91" t="s">
         <v>295</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>203</v>
       </c>
     </row>
@@ -23633,7 +24881,7 @@
       <c r="G92" t="s">
         <v>340</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>476</v>
       </c>
     </row>
@@ -23641,7 +24889,7 @@
       <c r="G93" t="s">
         <v>277</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>478</v>
       </c>
     </row>
@@ -23649,172 +24897,172 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17602" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18665" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1755,13 +1755,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="564" x14ac:knownFonts="1">
+  <fonts count="596" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5313,8 +5325,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="988">
+  <fills count="1048">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10909,8 +11123,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -10947,6 +11501,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -21107,7 +22225,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="622">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22847,52 +23965,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="960" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="960" fontId="548" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="963" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="963" fontId="550" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="966" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="966" fontId="551" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="969" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="969" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="553" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="972" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="972" fontId="554" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="975" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="557" fillId="978" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="558" fillId="981" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="559" fillId="981" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="561" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="975" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="978" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="981" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="981" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="984" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="990" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="993" fontId="566" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="996" fontId="567" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="999" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="569" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="570" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="1005" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="1008" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1011" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1011" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="1020" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1023" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1026" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1029" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1035" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1038" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1041" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1041" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23613,7 +24827,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -23681,7 +24895,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -23740,7 +24954,7 @@
         <v>315</v>
       </c>
       <c r="N7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -23798,6 +25012,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>558</v>
+      </c>
       <c r="Q8" t="s">
         <v>90</v>
       </c>
@@ -23851,6 +25068,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>559</v>
+      </c>
       <c r="Q9" t="s">
         <v>91</v>
       </c>
@@ -23892,6 +25112,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>560</v>
+      </c>
       <c r="Q10" t="s">
         <v>434</v>
       </c>
@@ -24280,7 +25503,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>564</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>
@@ -24297,7 +25520,7 @@
         <v>282</v>
       </c>
       <c r="K26" t="s">
-        <v>483</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>112</v>
@@ -24314,7 +25537,7 @@
         <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="Y27" t="s">
         <v>113</v>
@@ -24331,7 +25554,7 @@
         <v>283</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>327</v>
@@ -24346,6 +25569,9 @@
       </c>
       <c r="G29" t="s">
         <v>284</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>114</v>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18665" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19200" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1767,13 +1767,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="596" x14ac:knownFonts="1">
+  <fonts count="612" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5527,8 +5539,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1048">
+  <fills count="1078">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11463,8 +11576,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1067">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -11501,6 +11784,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22225,7 +22790,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="622">
+  <cellXfs count="638">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24061,52 +24626,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="579" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="580" fillId="1020" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1020" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="581" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="582" fillId="1023" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1023" fontId="582" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="583" fillId="1026" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1026" fontId="583" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="584" fillId="1029" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1029" fontId="584" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="585" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="586" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="588" fillId="1035" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="589" fillId="1038" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="590" fillId="1041" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="591" fillId="1041" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="593" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="594" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="595" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1035" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1038" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1041" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1041" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1050" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1053" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1056" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1059" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1065" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1068" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1077" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24637,7 +25250,7 @@
         <v>505</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="E3" t="s">
         <v>500</v>
@@ -24720,7 +25333,7 @@
         <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -24803,7 +25416,7 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E5" t="s">
         <v>501</v>
@@ -24827,7 +25440,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -24873,6 +25486,9 @@
       <c r="B6" t="s">
         <v>376</v>
       </c>
+      <c r="D6" t="s">
+        <v>532</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -24895,7 +25511,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -24954,7 +25570,7 @@
         <v>315</v>
       </c>
       <c r="N7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -25013,7 +25629,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="Q8" t="s">
         <v>90</v>
@@ -25069,7 +25685,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="Q9" t="s">
         <v>91</v>
@@ -25113,7 +25729,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="Q10" t="s">
         <v>434</v>
@@ -25153,6 +25769,9 @@
       <c r="M11" t="s">
         <v>517</v>
       </c>
+      <c r="N11" t="s">
+        <v>559</v>
+      </c>
       <c r="Q11" t="s">
         <v>92</v>
       </c>
@@ -25188,6 +25807,9 @@
       <c r="M12" t="s">
         <v>484</v>
       </c>
+      <c r="N12" t="s">
+        <v>560</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -25503,7 +26125,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -18,17 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19200" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19757" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1779,13 +1779,82 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="612" x14ac:knownFonts="1">
+  <fonts count="628" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5640,8 +5709,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1078">
+  <fills count="1105">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11746,8 +11916,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1127">
     <border>
       <left/>
       <right/>
@@ -22605,6 +22928,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -22790,7 +23439,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="638">
+  <cellXfs count="654">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24674,52 +25323,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="1050" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1050" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="597" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1053" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1053" fontId="598" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1056" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1056" fontId="599" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="1059" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1059" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="601" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1062" fontId="602" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="1065" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="1068" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="609" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="611" fillId="1077" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1065" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1068" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1071" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1071" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1080" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1083" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1086" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1089" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1095" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1086" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1098" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1098" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25044,7 +25741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25425,10 +26122,13 @@
         <v>482</v>
       </c>
       <c r="G5" t="s">
-        <v>336</v>
+        <v>570</v>
       </c>
       <c r="H5" t="s">
         <v>498</v>
+      </c>
+      <c r="I5" t="s">
+        <v>575</v>
       </c>
       <c r="J5" t="s">
         <v>351</v>
@@ -25496,7 +26196,7 @@
         <v>545</v>
       </c>
       <c r="G6" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
         <v>493</v>
@@ -25558,11 +26258,14 @@
         <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="H7" t="s">
         <v>489</v>
       </c>
+      <c r="J7" t="s">
+        <v>576</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -25603,7 +26306,7 @@
         <v>427</v>
       </c>
       <c r="AD7" t="s">
-        <v>232</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8">
@@ -25617,7 +26320,7 @@
         <v>318</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H8" t="s">
         <v>328</v>
@@ -25659,7 +26362,7 @@
         <v>428</v>
       </c>
       <c r="AD8" t="s">
-        <v>233</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9">
@@ -25673,7 +26376,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="H9" t="s">
         <v>329</v>
@@ -25706,7 +26409,7 @@
         <v>189</v>
       </c>
       <c r="AD9" t="s">
-        <v>234</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10">
@@ -25717,7 +26420,7 @@
         <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="H10" t="s">
         <v>494</v>
@@ -25747,7 +26450,7 @@
         <v>190</v>
       </c>
       <c r="AD10" t="s">
-        <v>526</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11">
@@ -25758,7 +26461,7 @@
         <v>255</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="H11" t="s">
         <v>322</v>
@@ -25785,7 +26488,7 @@
         <v>259</v>
       </c>
       <c r="AD11" t="s">
-        <v>534</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
@@ -25796,7 +26499,7 @@
         <v>319</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="H12" t="s">
         <v>323</v>
@@ -25805,7 +26508,7 @@
         <v>390</v>
       </c>
       <c r="M12" t="s">
-        <v>484</v>
+        <v>577</v>
       </c>
       <c r="N12" t="s">
         <v>560</v>
@@ -25823,7 +26526,7 @@
         <v>191</v>
       </c>
       <c r="AD12" t="s">
-        <v>535</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -25834,7 +26537,7 @@
         <v>341</v>
       </c>
       <c r="G13" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="H13" t="s">
         <v>324</v>
@@ -25843,7 +26546,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="Q13" t="s">
         <v>93</v>
@@ -25858,7 +26561,7 @@
         <v>192</v>
       </c>
       <c r="AD13" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
@@ -25869,7 +26572,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="H14" t="s">
         <v>325</v>
@@ -25878,7 +26581,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>518</v>
       </c>
       <c r="Q14" t="s">
         <v>94</v>
@@ -25893,7 +26596,7 @@
         <v>193</v>
       </c>
       <c r="AD14" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15">
@@ -25904,13 +26607,13 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K15" t="s">
         <v>550</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>542</v>
@@ -25925,7 +26628,7 @@
         <v>194</v>
       </c>
       <c r="AD15" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16">
@@ -25936,13 +26639,13 @@
         <v>385</v>
       </c>
       <c r="G16" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>578</v>
       </c>
       <c r="Q16" t="s">
         <v>543</v>
@@ -25957,7 +26660,7 @@
         <v>195</v>
       </c>
       <c r="AD16" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17">
@@ -25968,11 +26671,14 @@
         <v>386</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>317</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
       </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
       <c r="Y17" t="s">
         <v>544</v>
       </c>
@@ -25980,7 +26686,7 @@
         <v>508</v>
       </c>
       <c r="AD17" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18">
@@ -25991,16 +26697,19 @@
         <v>415</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>499</v>
       </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
       <c r="Y18" t="s">
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19">
@@ -26011,7 +26720,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -26020,7 +26729,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>235</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20">
@@ -26031,7 +26740,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -26040,7 +26749,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>236</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21">
@@ -26051,7 +26760,7 @@
         <v>256</v>
       </c>
       <c r="G21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K21" t="s">
         <v>380</v>
@@ -26060,7 +26769,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>237</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22">
@@ -26068,16 +26777,19 @@
         <v>413</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>569</v>
       </c>
       <c r="G22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K22" t="s">
         <v>513</v>
       </c>
       <c r="Y22" t="s">
         <v>522</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -26085,16 +26797,19 @@
         <v>357</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
       </c>
       <c r="Y23" t="s">
         <v>109</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="24">
@@ -26102,16 +26817,19 @@
         <v>397</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>321</v>
       </c>
       <c r="G24" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="K24" t="s">
         <v>392</v>
       </c>
       <c r="Y24" t="s">
-        <v>110</v>
+        <v>579</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="25">
@@ -26119,16 +26837,19 @@
         <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>490</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="K25" t="s">
         <v>566</v>
       </c>
       <c r="Y25" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="26">
@@ -26136,16 +26857,19 @@
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>490</v>
       </c>
       <c r="G26" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="27">
@@ -26153,16 +26877,19 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="K27" t="s">
         <v>483</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="28">
@@ -26170,16 +26897,16 @@
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>327</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -26187,16 +26914,16 @@
         <v>414</v>
       </c>
       <c r="E29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>114</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30">
@@ -26204,713 +26931,763 @@
         <v>227</v>
       </c>
       <c r="E30" t="s">
-        <v>416</v>
+        <v>511</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>63</v>
+        <v>416</v>
       </c>
       <c r="G31" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="Y31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>546</v>
+        <v>285</v>
       </c>
       <c r="Y33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>546</v>
       </c>
       <c r="Y34" t="s">
-        <v>119</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="Y35" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="Y37" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>308</v>
       </c>
-      <c r="Y38" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>267</v>
-      </c>
       <c r="Y39" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s">
-        <v>122</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="Y42" t="s">
-        <v>123</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>300</v>
+        <v>571</v>
       </c>
       <c r="Y43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Y44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="Y45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="Y46" t="s">
-        <v>480</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>211</v>
+        <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="Y48" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
       <c r="Y49" t="s">
-        <v>127</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="Y50" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="Y52" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="Y53" t="s">
-        <v>507</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="Y54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="Y55" t="s">
-        <v>346</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="Y56" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Y57" t="s">
-        <v>131</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="Y58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>312</v>
+        <v>572</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="Y64" t="s">
-        <v>479</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="Y65" t="s">
-        <v>524</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="Y66" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="Y67" t="s">
-        <v>389</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="Y68" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y69" t="s">
-        <v>138</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="Y70" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>304</v>
+        <v>573</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>262</v>
+        <v>410</v>
       </c>
       <c r="Y73" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>547</v>
+        <v>304</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="Y75" t="s">
-        <v>497</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="Y76" t="s">
-        <v>512</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>286</v>
+        <v>547</v>
       </c>
       <c r="Y77" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="Y78" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>429</v>
+        <v>280</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="Y80" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="Y81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>281</v>
+        <v>429</v>
       </c>
       <c r="Y82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="Y83" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Y84" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y86" t="s">
-        <v>496</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>574</v>
       </c>
       <c r="Y88" t="s">
-        <v>202</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="Y89" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="Y90" t="s">
-        <v>147</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="Y91" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="Y92" t="s">
-        <v>476</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="Y93" t="s">
-        <v>478</v>
+        <v>583</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>223</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>551</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>552</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>553</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>383</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>151</v>
+        <v>551</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>152</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>154</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>155</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>481</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>169</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -18,40 +18,41 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19757" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20882" uniqueCount="603">
   <si>
     <t>description</t>
   </si>
@@ -1848,13 +1849,46 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="628" x14ac:knownFonts="1">
+  <fonts count="660" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5810,8 +5844,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1105">
+  <fills count="1159">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12069,8 +12305,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1127">
+  <borders count="1191">
     <border>
       <left/>
       <right/>
@@ -22928,6 +23470,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -23439,7 +24633,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="654">
+  <cellXfs count="686">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25371,52 +26565,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1080" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1080" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1083" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1083" fontId="614" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1086" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1086" fontId="615" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1089" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1089" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="617" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="618" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="1095" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="621" fillId="1086" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="622" fillId="1098" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="623" fillId="1098" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="624" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="625" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="626" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="627" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1095" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1086" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1098" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1098" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1101" fontId="625" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1104" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1107" fontId="628" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="629" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1110" fontId="630" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1113" fontId="631" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1116" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="633" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1119" fontId="634" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1122" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1154" fillId="1113" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1125" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1125" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1116" fontId="640" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1128" fontId="641" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1116" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1131" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1134" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1137" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1140" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1143" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1149" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1152" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1152" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25741,7 +27031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25766,81 +27056,84 @@
         <v>528</v>
       </c>
       <c r="E1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>347</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>333</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>554</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>514</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>196</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>239</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>396</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>413</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>357</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>397</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>414</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -25858,81 +27151,84 @@
         <v>529</v>
       </c>
       <c r="E2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>491</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>509</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>315</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>384</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>433</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>555</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>519</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>417</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>430</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>253</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>217</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>398</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>420</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>381</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>407</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>171</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>183</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>432</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>533</v>
       </c>
     </row>
@@ -25949,76 +27245,76 @@
       <c r="D3" t="s">
         <v>565</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>500</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>365</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>515</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>349</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>341</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>334</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>556</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>520</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>431</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>240</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>218</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>399</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>421</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>382</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>408</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>172</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>177</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>364</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>184</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>228</v>
       </c>
     </row>
@@ -26032,82 +27328,82 @@
       <c r="D4" t="s">
         <v>530</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>387</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>492</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>516</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>350</v>
       </c>
-      <c r="K4" t="s">
-        <v>238</v>
-      </c>
       <c r="L4" t="s">
+        <v>601</v>
+      </c>
+      <c r="M4" t="s">
         <v>335</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>557</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>521</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>241</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>219</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>400</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>422</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>358</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>409</v>
       </c>
-      <c r="Y4" t="s">
-        <v>354</v>
-      </c>
       <c r="Z4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA4" t="s">
         <v>173</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>178</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>184</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>424</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>592</v>
       </c>
       <c r="B5" t="s">
         <v>375</v>
@@ -26115,73 +27411,73 @@
       <c r="D5" t="s">
         <v>531</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>501</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>482</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>570</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>498</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>575</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>351</v>
       </c>
-      <c r="K5" t="s">
-        <v>506</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>238</v>
+      </c>
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>567</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>242</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>220</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>401</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>423</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>359</v>
       </c>
-      <c r="Y5" t="s">
-        <v>355</v>
-      </c>
       <c r="Z5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA5" t="s">
         <v>174</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>179</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>185</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>425</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>376</v>
@@ -26189,1505 +27485,1519 @@
       <c r="D6" t="s">
         <v>532</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>545</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>336</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>493</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>348</v>
       </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>561</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>243</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>391</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>402</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>361</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>486</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>180</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>186</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>224</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>388</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>489</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>576</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
         <v>315</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>562</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>244</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>418</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>403</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>360</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>487</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>181</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>187</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>427</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>378</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>318</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>366</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>328</v>
       </c>
-      <c r="K8" t="s">
-        <v>548</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>563</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>245</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>404</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>362</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>175</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>182</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>188</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>428</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>379</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>367</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>329</v>
       </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>548</v>
+      </c>
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>568</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>246</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>405</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>363</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>209</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>189</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>347</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>315</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>306</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>494</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>558</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>434</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>247</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>406</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>257</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>190</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" t="s">
+        <v>594</v>
+      </c>
+      <c r="H11" t="s">
         <v>352</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>322</v>
       </c>
-      <c r="K11" t="s">
-        <v>549</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
         <v>517</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>559</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>248</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>258</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>259</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>319</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>274</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>323</v>
       </c>
-      <c r="K12" t="s">
-        <v>390</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>549</v>
+      </c>
+      <c r="N12" t="s">
         <v>577</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>560</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>249</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>191</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" t="s">
         <v>341</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>263</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>324</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>390</v>
+      </c>
+      <c r="N13" t="s">
         <v>484</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>254</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>326</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>192</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>554</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>316</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>325</v>
       </c>
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
         <v>518</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>94</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>250</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>193</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>514</v>
-      </c>
-      <c r="E15" t="s">
+        <v>554</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>264</v>
       </c>
-      <c r="K15" t="s">
-        <v>550</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>542</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>251</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>194</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" t="s">
+        <v>514</v>
+      </c>
+      <c r="F16" t="s">
         <v>385</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>265</v>
       </c>
-      <c r="K16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>550</v>
+      </c>
+      <c r="N16" t="s">
         <v>578</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>543</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>252</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>195</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" t="s">
         <v>386</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>317</v>
       </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>544</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>508</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>415</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
-        <v>499</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" t="s">
+        <v>600</v>
+      </c>
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>396</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
         <v>296</v>
       </c>
-      <c r="K20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" t="s">
+        <v>396</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
         <v>297</v>
       </c>
-      <c r="K21" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>413</v>
-      </c>
-      <c r="E22" t="s">
-        <v>569</v>
-      </c>
-      <c r="G22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" t="s">
         <v>298</v>
       </c>
-      <c r="K22" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z22" t="s">
         <v>522</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>357</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" t="s">
+        <v>569</v>
+      </c>
+      <c r="H23" t="s">
         <v>299</v>
       </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>397</v>
-      </c>
-      <c r="E24" t="s">
-        <v>321</v>
-      </c>
-      <c r="G24" t="s">
+        <v>357</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
         <v>290</v>
       </c>
-      <c r="K24" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z24" t="s">
         <v>579</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
+        <v>397</v>
+      </c>
+      <c r="F25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H25" t="s">
         <v>279</v>
       </c>
-      <c r="K25" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>490</v>
-      </c>
-      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>490</v>
+      </c>
+      <c r="H27" t="s">
         <v>282</v>
       </c>
-      <c r="K27" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>226</v>
-      </c>
-      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" t="s">
         <v>266</v>
       </c>
-      <c r="K28" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>414</v>
-      </c>
-      <c r="E29" t="s">
-        <v>510</v>
-      </c>
-      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" t="s">
         <v>283</v>
       </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" t="s">
+        <v>510</v>
+      </c>
+      <c r="H30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>227</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>511</v>
       </c>
-      <c r="G30" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>416</v>
       </c>
-      <c r="G31" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
-        <v>546</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>267</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>581</v>
+      <c r="Z41" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>212</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>571</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>289</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>300</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>301</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>343</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>342</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>211</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>320</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>339</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>368</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>302</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>356</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>331</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>268</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>292</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>293</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>572</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>294</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>303</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>312</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>337</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>309</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>310</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>369</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>370</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>345</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>313</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>269</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>573</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>314</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>410</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>304</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>411</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>262</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>547</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>344</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>280</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>286</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>291</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>429</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>332</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>270</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>281</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>287</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>276</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>574</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>271</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>288</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>272</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>273</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>305</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>311</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>295</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>340</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>277</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>278</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20882" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22012" uniqueCount="606">
   <si>
     <t>description</t>
   </si>
@@ -1882,13 +1882,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="660" x14ac:knownFonts="1">
+  <fonts count="692" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6046,8 +6055,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1159">
+  <fills count="1213">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12611,8 +12822,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1191">
+  <borders count="1255">
     <border>
       <left/>
       <right/>
@@ -23470,6 +23987,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -24633,7 +25802,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="686">
+  <cellXfs count="718">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26661,52 +27830,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1131" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1134" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1134" fontId="644" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1137" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1137" fontId="646" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1140" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1140" fontId="647" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1143" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1143" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1146" fontId="650" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="1149" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="654" fillId="1152" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="1152" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="656" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="657" fillId="1155" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="658" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="659" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1149" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1140" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1152" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1152" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1143" fontId="656" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1155" fontId="657" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1143" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1158" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1161" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1164" fontId="662" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1167" fontId="663" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1170" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1173" fontId="666" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1176" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1167" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1179" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1179" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1170" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1182" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1170" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1188" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1194" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1197" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1203" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1194" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1206" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1206" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27031,7 +28296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27497,6 +28762,9 @@
       <c r="I6" t="s">
         <v>493</v>
       </c>
+      <c r="J6" t="s">
+        <v>603</v>
+      </c>
       <c r="K6" t="s">
         <v>348</v>
       </c>
@@ -28013,7 +29281,7 @@
         <v>239</v>
       </c>
       <c r="F19" t="s">
-        <v>600</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -28033,7 +29301,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>296</v>
@@ -28053,7 +29321,7 @@
         <v>396</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="H21" t="s">
         <v>297</v>
@@ -28073,7 +29341,7 @@
         <v>412</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="H22" t="s">
         <v>298</v>
@@ -28093,7 +29361,7 @@
         <v>413</v>
       </c>
       <c r="F23" t="s">
-        <v>569</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>299</v>
@@ -28113,7 +29381,7 @@
         <v>357</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>321</v>
       </c>
       <c r="H24" t="s">
         <v>290</v>
@@ -28133,7 +29401,7 @@
         <v>397</v>
       </c>
       <c r="F25" t="s">
-        <v>321</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>279</v>
@@ -28153,7 +29421,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>490</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -28173,7 +29441,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>490</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s">
         <v>282</v>
@@ -28193,7 +29461,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>266</v>
@@ -28210,7 +29478,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>510</v>
       </c>
       <c r="H29" t="s">
         <v>283</v>
@@ -28227,7 +29495,7 @@
         <v>414</v>
       </c>
       <c r="F30" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H30" t="s">
         <v>284</v>
@@ -28244,7 +29512,7 @@
         <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>511</v>
+        <v>416</v>
       </c>
       <c r="H31" t="s">
         <v>216</v>
@@ -28255,7 +29523,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>416</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>275</v>
@@ -28266,7 +29534,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>285</v>
@@ -28277,7 +29545,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>546</v>
@@ -28288,7 +29556,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>260</v>
@@ -28299,7 +29567,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>330</v>
@@ -28310,7 +29578,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>307</v>
@@ -28321,7 +29589,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>261</v>
@@ -28332,7 +29600,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>308</v>
@@ -28342,9 +29610,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>267</v>
       </c>
@@ -28818,186 +30083,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>478</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>204</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>205</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>551</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>599</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>149</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>150</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>151</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>481</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>585</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>165</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22012" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22577" uniqueCount="606">
   <si>
     <t>description</t>
   </si>
@@ -1897,7 +1897,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="692" x14ac:knownFonts="1">
+  <fonts count="708" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6257,8 +6257,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1213">
+  <fills count="1240">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13128,8 +13229,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1255">
+  <borders count="1287">
     <border>
       <left/>
       <right/>
@@ -23987,6 +24241,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -25802,7 +26382,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="718">
+  <cellXfs count="734">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27926,52 +28506,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1188" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1188" fontId="676" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="677" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1191" fontId="678" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1194" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1194" fontId="679" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="1197" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1197" fontId="680" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="681" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1200" fontId="682" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1203" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="1194" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="1206" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="687" fillId="1206" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="689" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="690" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="691" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1203" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1194" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1206" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1206" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="688" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1209" fontId="689" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1218" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1221" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1224" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1230" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1221" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1233" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1233" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1236" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="1239" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/web-02.xlsx
+++ b/artifact/script/web-02.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22577" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23707" uniqueCount="606">
   <si>
     <t>description</t>
   </si>
@@ -1897,7 +1897,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="708" x14ac:knownFonts="1">
+  <fonts count="740" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6358,8 +6358,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1240">
+  <fills count="1294">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13382,8 +13584,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1287">
+  <borders count="1351">
     <border>
       <left/>
       <right/>
@@ -24241,6 +24749,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -26382,7 +27542,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="734">
+  <cellXfs count="766">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28554,52 +29714,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1215" fontId="692" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="693" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1218" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1266" fillId="1218" fontId="694" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1221" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1221" fontId="695" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="1224" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1224" fontId="696" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="697" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="698" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="1230" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="1221" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="702" fillId="1233" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="1233" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="705" fillId="1236" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="707" fillId="1239" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1230" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1221" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1233" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1233" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="704" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1236" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1242" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1245" fontId="710" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1248" fontId="711" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1251" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="713" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="714" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1257" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1248" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1260" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1260" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1263" fontId="721" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1269" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1272" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1275" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1278" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1284" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1275" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1287" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1287" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
